--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="285">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルは薬剤用のDosageベースとして基礎となる制約と拡張のうち共通部分を定めている。</t>
+    <t>このデータタイプは薬剤用法のDosageベースとして基礎となる制約と拡張のうち共通部分を定めている。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -318,58 +315,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>periodOfUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
-</t>
-  </si>
-  <si>
-    <t>投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>usageDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration}
-</t>
-  </si>
-  <si>
-    <t>実投与日数</t>
-  </si>
-  <si>
-    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
-</t>
-  </si>
-  <si>
-    <t>指示ライン</t>
-  </si>
-  <si>
-    <t>指示ラインを格納する拡張</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Device}
-</t>
-  </si>
-  <si>
-    <t>投与装置</t>
-  </si>
-  <si>
-    <t>投与装置を格納する拡張</t>
-  </si>
-  <si>
     <t>Dosage.modifierExtension</t>
   </si>
   <si>
@@ -433,7 +378,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>RXO-6; RXE-21</t>
@@ -461,7 +406,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -486,10 +431,7 @@
 </t>
   </si>
   <si>
-    <t>A timing schedule that specifies an event that may occur multiple times</t>
-  </si>
-  <si>
-    <t>Specifies an event that may occur multiple times. Timing schedules are used to record when things are planned, expected or requested to occur. The most common usage is in dosage instructions for medications. They are also used when planning care of various kinds, and may be used for reporting the schedule to which past regular activities were carried out.</t>
+    <t>投与日時</t>
   </si>
   <si>
     <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
@@ -541,7 +483,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -556,14 +498,14 @@
     <t>投与経路</t>
   </si>
   <si>
-    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
+    <t>投与経路の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
 【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -578,7 +520,7 @@
     <t>投与方法</t>
   </si>
   <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
   </si>
   <si>
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
@@ -652,7 +594,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>Dosage.method.coding.id</t>
@@ -792,7 +734,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -838,13 +780,13 @@
     <t>力価区分</t>
   </si>
   <si>
-    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>投与速度・量の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -853,23 +795,34 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
-    <t>RXO-2, RXE-3</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -877,6 +830,12 @@
   <si>
     <t>Ratio
 RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>薬剤の投与量速度</t>
+  </si>
+  <si>
+    <t>薬剤が投与される量の速度</t>
   </si>
   <si>
     <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.@@ -887,41 +846,10 @@
     <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXE22, RXE23, RXE-24</t>
-  </si>
-  <si>
-    <t>rateRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
-</t>
-  </si>
-  <si>
-    <t>時間範囲指定された上限下限量</t>
-  </si>
-  <si>
-    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -931,7 +859,7 @@
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量</t>
+    <t>単位時間当たりの投薬量の上限</t>
   </si>
   <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
@@ -954,7 +882,7 @@
 </t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+    <t>1回あたりの投薬量の上限</t>
   </si>
   <si>
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -963,17 +891,10 @@
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
     <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>生涯の投薬量の上限</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
@@ -1283,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK48"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1293,7 +1214,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1302,7 +1223,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1316,7 +1237,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1475,7 +1396,7 @@
         <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1538,10 +1459,10 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>74</v>
@@ -1549,7 +1470,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1560,25 +1481,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1629,22 +1550,22 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>74</v>
@@ -1652,11 +1573,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1675,16 +1596,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1722,19 +1643,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1746,10 +1667,10 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1757,32 +1678,30 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>101</v>
@@ -1790,8 +1709,12 @@
       <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" t="s" s="2">
         <v>74</v>
       </c>
@@ -1839,7 +1762,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1851,10 +1774,10 @@
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -1862,11 +1785,9 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>74</v>
       </c>
@@ -1875,7 +1796,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1884,19 +1805,23 @@
         <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O6" t="s" s="2">
         <v>74</v>
       </c>
@@ -1944,34 +1869,32 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>74</v>
       </c>
@@ -1980,7 +1903,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -1989,19 +1912,23 @@
         <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O7" t="s" s="2">
         <v>74</v>
       </c>
@@ -2049,34 +1976,32 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>74</v>
       </c>
@@ -2094,19 +2019,23 @@
         <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O8" t="s" s="2">
         <v>74</v>
       </c>
@@ -2130,13 +2059,11 @@
         <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X8" s="2"/>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>74</v>
@@ -2154,7 +2081,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2166,54 +2093,52 @@
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>74</v>
       </c>
@@ -2261,30 +2186,30 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2295,7 +2220,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
@@ -2304,22 +2229,22 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -2368,30 +2293,30 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2402,7 +2327,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>74</v>
@@ -2411,23 +2336,21 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2475,30 +2398,30 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2509,7 +2432,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2518,22 +2441,22 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -2558,11 +2481,11 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>74</v>
@@ -2580,30 +2503,30 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2614,7 +2537,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2623,21 +2546,23 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2661,13 +2586,11 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -2685,30 +2608,30 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2719,7 +2642,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -2728,22 +2651,22 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2768,13 +2691,13 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -2792,30 +2715,30 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2826,29 +2749,27 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2897,41 +2818,41 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -2940,23 +2861,21 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2980,47 +2899,49 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -3036,7 +2957,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -3045,22 +2966,22 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3085,54 +3006,56 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3141,7 +3064,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -3150,22 +3073,22 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3190,13 +3113,11 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3220,19 +3141,19 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -3248,25 +3169,25 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J19" t="s" s="2">
+      <c r="K19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3317,22 +3238,22 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3344,7 +3265,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3363,16 +3284,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3410,19 +3331,19 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB20" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB20" t="s" s="2">
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
+      <c r="AE20" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3434,10 +3355,10 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3453,10 +3374,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -3465,7 +3386,7 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>191</v>
@@ -3487,7 +3408,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>74</v>
@@ -3517,14 +3438,16 @@
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>197</v>
@@ -3533,13 +3456,13 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>198</v>
@@ -3550,11 +3473,9 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>200</v>
       </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3563,19 +3484,19 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>201</v>
@@ -3586,9 +3507,7 @@
       <c r="M22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3612,52 +3531,54 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3668,7 +3589,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3677,19 +3598,21 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3737,41 +3660,41 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3780,21 +3703,21 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3830,42 +3753,42 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3873,10 +3796,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -3885,29 +3808,29 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>74</v>
@@ -3949,32 +3872,34 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>74</v>
       </c>
@@ -3983,7 +3908,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -3992,21 +3917,23 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4030,13 +3957,11 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4054,30 +3979,30 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4088,30 +4013,28 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4159,41 +4082,41 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4202,21 +4125,21 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4252,42 +4175,42 @@
         <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4295,10 +4218,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4307,29 +4230,29 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>74</v>
@@ -4371,34 +4294,32 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4407,32 +4328,30 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4456,11 +4375,13 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4478,30 +4399,30 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4512,7 +4433,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
@@ -4521,19 +4442,21 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4581,41 +4504,41 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -4624,21 +4547,21 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4674,42 +4597,42 @@
         <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4717,10 +4640,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>74</v>
@@ -4729,29 +4652,29 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>74</v>
@@ -4793,30 +4716,30 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4827,30 +4750,32 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
+      <c r="K34" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="J34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
       </c>
@@ -4898,30 +4823,30 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4932,7 +4857,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>74</v>
@@ -4941,21 +4866,19 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5003,30 +4926,30 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5037,30 +4960,28 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J36" t="s" s="2">
+      <c r="K36" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5108,41 +5029,41 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
@@ -5151,23 +5072,21 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5203,42 +5122,42 @@
         <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5249,7 +5168,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -5258,22 +5177,22 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5298,13 +5217,11 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5322,30 +5239,30 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5356,7 +5273,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5365,19 +5282,23 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5425,22 +5346,22 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>261</v>
@@ -5459,7 +5380,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>74</v>
@@ -5468,19 +5389,23 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5528,41 +5453,41 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -5574,18 +5499,20 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -5621,42 +5548,42 @@
         <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5667,7 +5594,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -5676,22 +5603,22 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -5716,11 +5643,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -5738,30 +5667,30 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5772,7 +5701,7 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -5781,22 +5710,22 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -5845,560 +5774,25 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AB44" s="2"/>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>306</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -247,117 +250,117 @@
   </si>
   <si>
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Dosage.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Dosage.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Dosage.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>服用指示の順番</t>
+  </si>
+  <si>
+    <t>どの服用指示を適応するか判断するかについての順序を示したもの</t>
+  </si>
+  <si>
+    <t>32 bitの数値。これ以上の値であれば10進数を使うこと。</t>
+  </si>
+  <si>
+    <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Dosage.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Dosage.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Dosage.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>服用指示の順番</t>
-  </si>
-  <si>
-    <t>どの服用指示を適応するか判断するかについての順序を示したもの</t>
-  </si>
-  <si>
-    <t>32 bitの数値。これ以上の値であれば10進数を使うこと。</t>
-  </si>
-  <si>
-    <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
   </si>
   <si>
     <t>.text</t>
@@ -1146,55 +1149,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1254,218 +1257,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1474,23 +1477,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>82</v>
@@ -1504,71 +1507,71 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1581,19 +1584,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>89</v>
@@ -1609,38 +1612,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>93</v>
@@ -1649,7 +1652,7 @@
         <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>95</v>
@@ -1658,13 +1661,13 @@
         <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>97</v>
@@ -1673,7 +1676,7 @@
         <v>86</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1686,13 +1689,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>100</v>
@@ -1716,62 +1719,62 @@
         <v>103</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>97</v>
@@ -1780,7 +1783,7 @@
         <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1789,20 +1792,20 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>100</v>
@@ -1823,93 +1826,93 @@
         <v>111</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>100</v>
@@ -1918,210 +1921,210 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>100</v>
@@ -2130,185 +2133,185 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>105</v>
@@ -2316,449 +2319,449 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>82</v>
@@ -2772,76 +2775,76 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2849,19 +2852,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
@@ -2877,38 +2880,38 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>93</v>
@@ -2917,7 +2920,7 @@
         <v>94</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>95</v>
@@ -2926,13 +2929,13 @@
         <v>96</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>97</v>
@@ -2941,244 +2944,244 @@
         <v>86</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>82</v>
@@ -3192,76 +3195,76 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3269,19 +3272,19 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>89</v>
@@ -3297,38 +3300,38 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>93</v>
@@ -3337,7 +3340,7 @@
         <v>94</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>95</v>
@@ -3346,13 +3349,13 @@
         <v>96</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>97</v>
@@ -3361,16 +3364,16 @@
         <v>86</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3380,117 +3383,117 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>100</v>
@@ -3499,208 +3502,208 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>100</v>
@@ -3709,320 +3712,320 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>82</v>
@@ -4036,76 +4039,76 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4113,19 +4116,19 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
@@ -4141,38 +4144,38 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>93</v>
@@ -4181,7 +4184,7 @@
         <v>94</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>95</v>
@@ -4190,13 +4193,13 @@
         <v>96</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>97</v>
@@ -4205,16 +4208,16 @@
         <v>86</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4224,117 +4227,117 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>100</v>
@@ -4343,208 +4346,208 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>100</v>
@@ -4553,210 +4556,210 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>100</v>
@@ -4765,211 +4768,211 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>82</v>
@@ -4983,76 +4986,76 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5060,19 +5063,19 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>89</v>
@@ -5088,38 +5091,38 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>93</v>
@@ -5128,7 +5131,7 @@
         <v>94</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>95</v>
@@ -5137,13 +5140,13 @@
         <v>96</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>97</v>
@@ -5152,430 +5155,430 @@
         <v>86</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>105</v>
@@ -5583,216 +5586,216 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -508,7 +508,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
